--- a/tests/manual_evaluation/Classification_Auto_Dev.xlsx
+++ b/tests/manual_evaluation/Classification_Auto_Dev.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://purdue0-my.sharepoint.com/personal/dananday_purdue_edu/Documents/Dharun HW/Grad_School/Research/Duality/Spring23/Failures_Validation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewcampbell/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="144" documentId="8_{07E05027-D7F0-4E5B-B3FA-8BA2B15A4E3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B9DF29C6-52EE-4F2B-9F56-4D2599A1098B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B1FDD83-1533-984E-B609-21D5E024451D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="18426" windowHeight="11746" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="18420" windowHeight="11740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tablib Dataset" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="212">
   <si>
     <t>id</t>
   </si>
@@ -670,13 +670,16 @@
   </si>
   <si>
     <t>Coinbase Rejects Corporate Social Activism - The New York Times</t>
+  </si>
+  <si>
+    <t>incident</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1047,23 +1050,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E103"/>
+  <dimension ref="A1:F103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E103" sqref="E103"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I103" sqref="I103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.140625" customWidth="1"/>
+    <col min="1" max="1" width="4.1640625" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="57.28515625" customWidth="1"/>
-    <col min="4" max="4" width="52.140625" customWidth="1"/>
-    <col min="5" max="5" width="30.42578125" customWidth="1"/>
+    <col min="3" max="3" width="57.33203125" customWidth="1"/>
+    <col min="4" max="4" width="52.1640625" customWidth="1"/>
+    <col min="5" max="5" width="30.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75">
+    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1079,8 +1082,11 @@
       <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -1097,8 +1103,11 @@
       <c r="E2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -1115,8 +1124,11 @@
       <c r="E3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>355</v>
       </c>
@@ -1133,8 +1145,11 @@
       <c r="E4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>291</v>
       </c>
@@ -1151,8 +1166,11 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>262</v>
       </c>
@@ -1169,8 +1187,11 @@
       <c r="E6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>305</v>
       </c>
@@ -1187,8 +1208,11 @@
       <c r="E7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>174</v>
       </c>
@@ -1205,8 +1229,11 @@
       <c r="E8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>143</v>
       </c>
@@ -1223,8 +1250,11 @@
       <c r="E9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>271</v>
       </c>
@@ -1241,8 +1271,11 @@
       <c r="E10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>302</v>
       </c>
@@ -1259,8 +1292,11 @@
       <c r="E11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="15">
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>304</v>
       </c>
@@ -1277,8 +1313,11 @@
       <c r="E12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>162</v>
       </c>
@@ -1295,8 +1334,11 @@
       <c r="E13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>358</v>
       </c>
@@ -1313,8 +1355,11 @@
       <c r="E14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>350</v>
       </c>
@@ -1331,8 +1376,11 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>297</v>
       </c>
@@ -1349,8 +1397,11 @@
       <c r="E16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>320</v>
       </c>
@@ -1367,8 +1418,11 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>202</v>
       </c>
@@ -1385,8 +1439,11 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>303</v>
       </c>
@@ -1403,8 +1460,11 @@
       <c r="E19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="15">
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>339</v>
       </c>
@@ -1421,8 +1481,11 @@
       <c r="E20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="F20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>328</v>
       </c>
@@ -1439,8 +1502,11 @@
       <c r="E21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="F21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>51</v>
       </c>
@@ -1457,8 +1523,11 @@
       <c r="E22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>342</v>
       </c>
@@ -1475,8 +1544,11 @@
       <c r="E23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>360</v>
       </c>
@@ -1493,8 +1565,11 @@
       <c r="E24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="15">
+      <c r="F24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>332</v>
       </c>
@@ -1511,8 +1586,11 @@
       <c r="E25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="F25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>160</v>
       </c>
@@ -1529,8 +1607,11 @@
       <c r="E26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="F26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>318</v>
       </c>
@@ -1547,8 +1628,11 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>335</v>
       </c>
@@ -1565,8 +1649,11 @@
       <c r="E28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="F28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>137</v>
       </c>
@@ -1583,8 +1670,11 @@
       <c r="E29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="F29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>319</v>
       </c>
@@ -1601,8 +1691,11 @@
       <c r="E30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="F30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>296</v>
       </c>
@@ -1619,8 +1712,11 @@
       <c r="E31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="F31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>337</v>
       </c>
@@ -1637,8 +1733,11 @@
       <c r="E32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="F32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>329</v>
       </c>
@@ -1655,8 +1754,11 @@
       <c r="E33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="F33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>159</v>
       </c>
@@ -1673,8 +1775,11 @@
       <c r="E34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="F34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>344</v>
       </c>
@@ -1691,8 +1796,11 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>299</v>
       </c>
@@ -1709,8 +1817,11 @@
       <c r="E36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="F36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>356</v>
       </c>
@@ -1727,8 +1838,11 @@
       <c r="E37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>341</v>
       </c>
@@ -1745,8 +1859,11 @@
       <c r="E38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="F38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>334</v>
       </c>
@@ -1763,8 +1880,11 @@
       <c r="E39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="F39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>188</v>
       </c>
@@ -1781,8 +1901,11 @@
       <c r="E40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:5">
+      <c r="F40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>312</v>
       </c>
@@ -1799,8 +1922,11 @@
       <c r="E41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:5">
+      <c r="F41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>300</v>
       </c>
@@ -1817,8 +1943,11 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>321</v>
       </c>
@@ -1835,8 +1964,11 @@
       <c r="E43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:5">
+      <c r="F43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>294</v>
       </c>
@@ -1853,8 +1985,11 @@
       <c r="E44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:5">
+      <c r="F44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>348</v>
       </c>
@@ -1871,8 +2006,11 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>69</v>
       </c>
@@ -1889,8 +2027,11 @@
       <c r="E46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:5">
+      <c r="F46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>287</v>
       </c>
@@ -1907,8 +2048,11 @@
       <c r="E47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:5">
+      <c r="F47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>353</v>
       </c>
@@ -1925,8 +2069,11 @@
       <c r="E48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:5">
+      <c r="F48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>293</v>
       </c>
@@ -1943,8 +2090,11 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>331</v>
       </c>
@@ -1961,8 +2111,11 @@
       <c r="E50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:5">
+      <c r="F50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>359</v>
       </c>
@@ -1979,8 +2132,11 @@
       <c r="E51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:5">
+      <c r="F51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>163</v>
       </c>
@@ -1997,8 +2153,11 @@
       <c r="E52">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>286</v>
       </c>
@@ -2015,8 +2174,11 @@
       <c r="E53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:5">
+      <c r="F53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>349</v>
       </c>
@@ -2033,8 +2195,11 @@
       <c r="E54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:5">
+      <c r="F54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>317</v>
       </c>
@@ -2051,8 +2216,11 @@
       <c r="E55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:5">
+      <c r="F55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>263</v>
       </c>
@@ -2069,8 +2237,11 @@
       <c r="E56">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:5">
+      <c r="F56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>346</v>
       </c>
@@ -2087,8 +2258,11 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>301</v>
       </c>
@@ -2105,8 +2279,11 @@
       <c r="E58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:5">
+      <c r="F58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>354</v>
       </c>
@@ -2123,8 +2300,11 @@
       <c r="E59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:5">
+      <c r="F59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>326</v>
       </c>
@@ -2141,8 +2321,11 @@
       <c r="E60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:5">
+      <c r="F60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>311</v>
       </c>
@@ -2159,8 +2342,11 @@
       <c r="E61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:5">
+      <c r="F61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>316</v>
       </c>
@@ -2177,8 +2363,11 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>330</v>
       </c>
@@ -2195,8 +2384,11 @@
       <c r="E63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:5">
+      <c r="F63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>340</v>
       </c>
@@ -2213,8 +2405,11 @@
       <c r="E64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:5">
+      <c r="F64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>283</v>
       </c>
@@ -2231,8 +2426,11 @@
       <c r="E65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:5">
+      <c r="F65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>292</v>
       </c>
@@ -2249,8 +2447,11 @@
       <c r="E66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:5">
+      <c r="F66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>322</v>
       </c>
@@ -2267,8 +2468,11 @@
       <c r="E67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:5">
+      <c r="F67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>295</v>
       </c>
@@ -2285,8 +2489,11 @@
       <c r="E68">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:5">
+      <c r="F68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>166</v>
       </c>
@@ -2303,8 +2510,11 @@
       <c r="E69">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:5">
+      <c r="F69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>361</v>
       </c>
@@ -2321,8 +2531,11 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>164</v>
       </c>
@@ -2339,8 +2552,11 @@
       <c r="E71">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:5">
+      <c r="F71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>308</v>
       </c>
@@ -2357,8 +2573,11 @@
       <c r="E72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:5">
+      <c r="F72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>324</v>
       </c>
@@ -2375,8 +2594,11 @@
       <c r="E73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" ht="15">
+      <c r="F73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>289</v>
       </c>
@@ -2393,8 +2615,11 @@
       <c r="E74" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="75" spans="1:5">
+      <c r="F74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>323</v>
       </c>
@@ -2411,8 +2636,11 @@
       <c r="E75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:5">
+      <c r="F75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>333</v>
       </c>
@@ -2429,8 +2657,11 @@
       <c r="E76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:5">
+      <c r="F76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>285</v>
       </c>
@@ -2447,8 +2678,11 @@
       <c r="E77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" ht="15">
+      <c r="F77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>347</v>
       </c>
@@ -2465,8 +2699,11 @@
       <c r="E78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:5">
+      <c r="F78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>5</v>
       </c>
@@ -2483,8 +2720,11 @@
       <c r="E79">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>352</v>
       </c>
@@ -2501,8 +2741,11 @@
       <c r="E80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:5">
+      <c r="F80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>190</v>
       </c>
@@ -2519,8 +2762,11 @@
       <c r="E81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" ht="15">
+      <c r="F81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>288</v>
       </c>
@@ -2537,8 +2783,11 @@
       <c r="E82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:5">
+      <c r="F82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>357</v>
       </c>
@@ -2555,8 +2804,11 @@
       <c r="E83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:5">
+      <c r="F83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>284</v>
       </c>
@@ -2573,8 +2825,11 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>313</v>
       </c>
@@ -2591,8 +2846,11 @@
       <c r="E85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:5">
+      <c r="F85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>306</v>
       </c>
@@ -2609,8 +2867,11 @@
       <c r="E86">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:5">
+      <c r="F86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>327</v>
       </c>
@@ -2627,8 +2888,11 @@
       <c r="E87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:5">
+      <c r="F87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>314</v>
       </c>
@@ -2645,8 +2909,11 @@
       <c r="E88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:5">
+      <c r="F88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>35</v>
       </c>
@@ -2663,8 +2930,11 @@
       <c r="E89">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:5">
+      <c r="F89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>338</v>
       </c>
@@ -2681,8 +2951,11 @@
       <c r="E90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:5">
+      <c r="F90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>298</v>
       </c>
@@ -2699,8 +2972,11 @@
       <c r="E91">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="1:5">
+      <c r="F91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>343</v>
       </c>
@@ -2717,8 +2993,11 @@
       <c r="E92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:5">
+      <c r="F92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>307</v>
       </c>
@@ -2735,8 +3014,11 @@
       <c r="E93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:5">
+      <c r="F93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>345</v>
       </c>
@@ -2753,8 +3035,11 @@
       <c r="E94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:5">
+      <c r="F94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>156</v>
       </c>
@@ -2771,8 +3056,11 @@
       <c r="E95">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="1:5">
+      <c r="F95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>2</v>
       </c>
@@ -2789,8 +3077,11 @@
       <c r="E96">
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>315</v>
       </c>
@@ -2807,8 +3098,11 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>310</v>
       </c>
@@ -2825,8 +3119,11 @@
       <c r="E98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:5">
+      <c r="F98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>336</v>
       </c>
@@ -2843,8 +3140,11 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>290</v>
       </c>
@@ -2861,8 +3161,11 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>351</v>
       </c>
@@ -2879,8 +3182,11 @@
       <c r="E101">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:5">
+      <c r="F101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>309</v>
       </c>
@@ -2897,8 +3203,11 @@
       <c r="E102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:5">
+      <c r="F102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>325</v>
       </c>
@@ -2914,6 +3223,9 @@
       </c>
       <c r="E103">
         <v>0</v>
+      </c>
+      <c r="F103">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2937,9 +3249,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:100">
+    <row r="1" spans="1:100" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>45</v>
       </c>
